--- a/scenario.xlsx
+++ b/scenario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>scenerio</t>
   </si>
@@ -105,183 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Kavita ordered a air fryer for an upcoming Christmas party. However, after receiving the product, they received a damaged product. Now, Kavita is worried about finding a solution before the Christmas party.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Shalini ordered a home theater system for an upcoming weekend getaway. However, after receiving the product, they noticed that the product was not working as expected. Now, Shalini is worried about finding a solution before the weekend getaway.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Aishwarya ordered a air conditioner for an upcoming wedding. However, after receiving the product, they received a notification that the product is delayed. Now, Aishwarya is worried about finding a solution before the wedding.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Sunil ordered a portable air conditioner for an upcoming baby shower. However, after receiving the product, they found the product to be different from what was described online. Now, Sunil is worried about finding a solution before the baby shower.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Meera ordered a smartwatch for an upcoming Thanksgiving dinner. However, after receiving the product, they received a notification that the product is delayed. Now, Meera is worried about finding a solution before the Thanksgiving dinner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Smita ordered a noise-cancelling headphones for an upcoming back-to-school season. However, after receiving the product, they noticed that the product was not working as expected. Now, Smita is worried about finding a solution before the back-to-school season.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Vivek ordered a washing machine for an upcoming graduation. However, after receiving the product, they received the wrong color. Now, Vivek is worried about finding a solution before the graduation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Rohit ordered a camera for an upcoming New Year's Eve celebration. However, after receiving the product, they noticed that the product was not working as expected. Now, Rohit is worried about finding a solution before the New Year's Eve celebration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Rina ordered a laptop for an upcoming family reunion. However, after receiving the product, they received the wrong color. Now, Rina is worried about finding a solution before the family reunion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ravi ordered a electric scooter for an upcoming music festival. However, after receiving the product, they discovered that the product is out of stock after placing the order. Now, Ravi is worried about finding a solution before the music festival.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Amit ordered a virtual reality headset for an upcoming Diwali celebration. However, after receiving the product, they received a notification that the product is delayed. Now, Amit is worried about finding a solution before the Diwali celebration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Sanjay ordered a wristwatch for an upcoming promotion. However, after receiving the product, they faced issues with the product installation. Now, Sanjay is worried about finding a solution before the promotion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Pooja ordered a portable projector for an upcoming housewarming party. However, after receiving the product, they received a notification that the product is delayed. Now, Pooja is worried about finding a solution before the housewarming party.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Nikhil ordered a laser printer for an upcoming weekend getaway. However, after receiving the product, they discovered that the product is out of stock after placing the order. Now, Nikhil is worried about finding a solution before the weekend getaway.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ajay ordered a smartphone for an upcoming anniversary. However, after receiving the product, they discovered that the product is out of stock after placing the order. Now, Ajay is worried about finding a solution before the anniversary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ravi ordered a microwave oven for an upcoming graduation. However, after receiving the product, they received a damaged product. Now, Ravi is worried about finding a solution before the graduation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Neha ordered a fitness tracker for an upcoming graduation. However, after receiving the product, they faced issues with the product installation. Now, Neha is worried about finding a solution before the graduation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Aishwarya ordered a refrigerator for an upcoming road trip. However, after receiving the product, they found that the product was missing a key component. Now, Aishwarya is worried about finding a solution before the road trip.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Sunil ordered a designer handbag for an upcoming home renovation. However, after receiving the product, they faced issues with the product installation. Now, Sunil is worried about finding a solution before the home renovation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Smita ordered a portable power bank for an upcoming birthday. However, after receiving the product, they faced issues with the product installation. Now, Smita is worried about finding a solution before the birthday.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ajay ordered a tablet for an upcoming long weekend. However, after receiving the product, they received a notification that the product is delayed. Now, Ajay is worried about finding a solution before the long weekend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Vikram ordered a blender for an upcoming anniversary. However, after receiving the product, they found that the product was missing a key component. Now, Vikram is worried about finding a solution before the anniversary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Rohit ordered a smart light bulbs for an upcoming fitness challenge. However, after receiving the product, they received the wrong color. Now, Rohit is worried about finding a solution before the fitness challenge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Sanjay ordered a vacuum cleaner for an upcoming family gathering. However, after receiving the product, they received a damaged product. Now, Sanjay is worried about finding a solution before the family gathering.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Deepa ordered a 3D printer for an upcoming music festival. However, after receiving the product, they realized that the product does not fit the intended purpose. Now, Deepa is worried about finding a solution before the music festival.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Kavya ordered a security camera system for her home but was shocked to find that the product delivered was completely different from what she ordered. With her business trip approaching, she’s anxious about the delay in securing her home and is urgently seeking a return and replacement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Aishwarya ordered a gaming console for an upcoming promotion. However, after receiving the product, they realized that the product does not fit the intended purpose. Now, Aishwarya is worried about finding a solution before the promotion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Rohit ordered a coffee machine for an upcoming graduation. However, after receiving the product, they had trouble with the payment process. Now, Rohit is worried about finding a solution before the graduation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Sunil ordered a Bluetooth speaker for an upcoming weekend getaway. However, after receiving the product, they received a notification that the product is delayed. Now, Sunil is worried about finding a solution before the weekend getaway.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Suman ordered a new car stereo system as a gift for her husband. Unfortunately, the product never arrived, and after contacting customer support, she was informed that it was lost in transit. Now, Suman is disappointed and unsure whether to reorder or look for an alternative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Amit ordered a headphones for an upcoming wedding. However, after receiving the product, they received the wrong color. Now, Amit is worried about finding a solution before the wedding.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Sunil ordered a wireless charging pad for an upcoming anniversary. However, after receiving the product, they found that the product was missing a key component. Now, Sunil is worried about finding a solution before the anniversary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Pooja ordered a specialized tool kit for her small business. To her dismay, the kit arrived late, and some essential tools were missing. With upcoming projects depending on these tools, Pooja is anxious about the delay and is urgently seeking a replacement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Arvind ordered a new dog bed for his Labrador, Max. The bed arrived on time, but it was smaller than described and not suitable for a large dog. Concerned about Max's comfort, Arvind is now trying to return the bed and find a more appropriate size.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Arjun ordered a durable trolley bag for his upcoming international trip. To his dismay, the bag was not delivered by the promised date, leaving him stressed as his departure date approaches. Arjun is now scrambling to either get a replacement or find an alternative at the last minute.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Shalini ordered a 4K television for an upcoming promotion. However, after receiving the product, they found that the product was missing a key component. Now, Shalini is worried about finding a solution before the promotion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Deepa ordered a digital piano for an upcoming family gathering. However, after receiving the product, they faced issues with the product installation. Now, Deepa is worried about finding a solution before the family gathering.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Meera ordered a set of cricket stumps for her son, who is passionate about the sport. The product was supposed to arrive in time for his weekend match, but it was delayed and then delivered with a broken stump. Meera is now dealing with the hassle of returning the product and finding a replacement quickly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Vinay ordered a set of vacuum storage bags to organize his seasonal clothes. However, after waiting for several days, the delivery status showed "out for delivery" but the product never arrived. Vinay is now concerned about the whereabouts of his order and is considering requesting a refund.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Meera ordered a smartwatch for an upcoming Thanksgiving dinner. However, after receiving the product, they received a notification that the product is delayed. Now, Meera is worried about finding a solution before the Thanksgiving dinner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Suman ordered a new car stereo system as a gift for her husband. Unfortunately, the product never arrived, and after contacting customer support, she was informed that it was lost in transit. Now, Suman is disappointed and unsure whether to reorder or look for an alternative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Vivek ordered a washing machine for an upcoming graduation. However, after receiving the product, they received the wrong color. Now, Vivek is worried about finding a solution before the graduation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ravi ordered a electric scooter for an upcoming music festival. However, after receiving the product, they discovered that the product is out of stock after placing the order. Now, Ravi is worried about finding a solution before the music festival.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Pooja ordered a portable projector for an upcoming housewarming party. However, after receiving the product, they received a notification that the product is delayed. Now, Pooja is worried about finding a solution before the housewarming party.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ravi ordered a microwave oven for an upcoming graduation. However, after receiving the product, they received a damaged product. Now, Ravi is worried about finding a solution before the graduation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Aishwarya ordered a refrigerator for an upcoming road trip. However, after receiving the product, they found that the product was missing a key component. Now, Aishwarya is worried about finding a solution before the road trip.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Sunil ordered a designer handbag for an upcoming home renovation. However, after receiving the product, they faced issues with the product installation. Now, Sunil is worried about finding a solution before the home renovation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Aishwarya ordered a air conditioner for an upcoming wedding. However, after receiving the product, they received a notification that the product is delayed. Now, Aishwarya is worried about finding a solution before the wedding.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Sunil ordered a wireless charging pad for an upcoming anniversary. However, after receiving the product, they found that the product was missing a key component. Now, Sunil is worried about finding a solution before the anniversary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Rohit ordered a camera for an upcoming New Year's Eve celebration. However, after receiving the product, they noticed that the product was not working as expected. Now, Rohit is worried about finding a solution before the New Year's Eve celebration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Pooja ordered a specialized tool kit for her small business. To her dismay, the kit arrived late, and some essential tools were missing. With upcoming projects depending on these tools, Pooja is anxious about the delay and is urgently seeking a replacement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Meera ordered a set of cricket stumps for her son, who is passionate about the sport. The product was supposed to arrive in time for his weekend match, but it was delayed and then delivered with a broken stump. Meera is now dealing with the hassle of returning the product and finding a replacement quickly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Deepa ordered a 3D printer for an upcoming music festival. However, after receiving the product, they realized that the product does not fit the intended purpose. Now, Deepa is worried about finding a solution before the music festival.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Deepa ordered a smart thermostat for an upcoming home renovation. However, after receiving the product, they faced issues with the product installation. Now, Deepa is worried about finding a solution before the home renovation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Neha ordered a fitness tracker for an upcoming graduation. However, after receiving the product, they faced issues with the product installation. Now, Neha is worried about finding a solution before the graduation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kavya ordered a security camera system for her home but was shocked to find that the product delivered was completely different from what she ordered. With her business trip approaching, she’s anxious about the delay in securing her home and is urgently seeking a return and replacement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Smita ordered a portable power bank for an upcoming birthday. However, after receiving the product, they faced issues with the product installation. Now, Smita is worried about finding a solution before the birthday.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ajay ordered a tablet for an upcoming long weekend. However, after receiving the product, they received a notification that the product is delayed. Now, Ajay is worried about finding a solution before the long weekend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kiran ordered a air purifier for an upcoming anniversary. However, after receiving the product, they faced issues with the product installation. Now, Kiran is worried about finding a solution before the anniversary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Sanjay ordered a electric grill for an upcoming Diwali celebration. However, after receiving the product, they discovered that the product is out of stock after placing the order. Now, Sanjay is worried about finding a solution before the Diwali celebration.</t>
   </si>
 </sst>
 </file>
@@ -666,7 +489,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:A111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -710,12 +533,12 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -810,420 +633,263 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="4" t="s">
-        <v>52</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A54" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A55" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A56" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A57" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A58" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A59" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A60" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="A61" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A62" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A63" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A64" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A65" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="A66" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="A67" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A68" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A69" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A70" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A71" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A72" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A73" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A74" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A75" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A76" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A77" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A78" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A79" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A80" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A81" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="A82" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A83" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A84" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A85" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="A86" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A87" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="A88" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A89" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A90" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A91" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A92" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A93" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A94" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="A95" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="A96" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="A97" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A98" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A99" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A100" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A101" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="A102" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A103" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A104" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="A105" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A106" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A107" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A108" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="A109" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A110" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16.8">
+      <c r="A111" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
